--- a/media/predictions/3.xlsx
+++ b/media/predictions/3.xlsx
@@ -16,12 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
-  <si>
-    <t>Distance №1</t>
-  </si>
-  <si>
-    <t>Заплив№1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+  <si>
+    <t>Дистанція №1 - 100 Вільний стиль</t>
+  </si>
+  <si>
+    <t>Заплив №1 - Чоловіки</t>
   </si>
   <si>
     <t>Учасник</t>
@@ -42,61 +42,79 @@
     <t>Доріжка</t>
   </si>
   <si>
+    <t>admin admin</t>
+  </si>
+  <si>
+    <t>None(None)</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>dsad</t>
+  </si>
+  <si>
+    <t>авы авы</t>
+  </si>
+  <si>
+    <t>C(35-39)</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>авы</t>
+  </si>
+  <si>
+    <t>4 4</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>3 3</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>F(50-54)</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>Заплив №2 - Чоловіки</t>
+  </si>
+  <si>
     <t>2 2</t>
   </si>
   <si>
-    <t>E</t>
+    <t>E(45-49)</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>авы авы</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>авы</t>
-  </si>
-  <si>
-    <t>4 4</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Заплив№2</t>
-  </si>
-  <si>
-    <t>admin admin</t>
-  </si>
-  <si>
-    <t>Single</t>
-  </si>
-  <si>
-    <t>dsad</t>
-  </si>
-  <si>
-    <t>Distance №2</t>
-  </si>
-  <si>
-    <t>Distance №3</t>
-  </si>
-  <si>
-    <t>Distance №4</t>
+    <t>Заплив №1 - Жінки</t>
+  </si>
+  <si>
+    <t>6 6</t>
+  </si>
+  <si>
+    <t>A(25-29)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Дистанція №2 - 50 Брас</t>
+  </si>
+  <si>
+    <t>Дистанція №3 - 100 Баттерфлай</t>
+  </si>
+  <si>
+    <t>Дистанція №4 - 100 Комплексне плавання</t>
+  </si>
+  <si>
+    <t>Дистанція №2 - 50 Вільний стиль</t>
   </si>
 </sst>
 </file>
@@ -466,7 +484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,7 +542,7 @@
         <v>11</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.000625</v>
+        <v>0.466099537037037</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>1</v>
@@ -538,13 +556,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0003703703703703704</v>
+        <v>0.0005092592592592592</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>2</v>
@@ -552,19 +570,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0005092592592592592</v>
+        <v>0.0005208333333333333</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>3</v>
@@ -575,16 +593,16 @@
         <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0005208333333333333</v>
+        <v>0.000625</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>4</v>
@@ -592,7 +610,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -617,135 +635,77 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4" t="n"/>
+        <v>22</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0001273148148148148</v>
+        <v>0.0003703703703703704</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21" s="4" t="s">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>0.0006365740740740741</v>
-      </c>
-      <c r="F21" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="5" t="n">
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="5" t="n">
         <v>0.0003819444444444445</v>
       </c>
-      <c r="F22" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>0.0004976851851851852</v>
-      </c>
-      <c r="F23" s="4" t="n">
-        <v>3</v>
+      <c r="F19" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>0.0004976851851851852</v>
-      </c>
-      <c r="F24" s="4" t="n">
-        <v>4</v>
+      <c r="A24" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -770,135 +730,137 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="4" t="n"/>
+        <v>18</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="C28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>0.0006365740740740741</v>
+      </c>
+      <c r="F28" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>0.0003819444444444445</v>
+      </c>
+      <c r="F29" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>0.0004976851851851852</v>
+      </c>
+      <c r="F30" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="5" t="n">
-        <v>0.0001273148148148148</v>
-      </c>
-      <c r="F28" s="4" t="n">
-        <v>1</v>
+      <c r="C31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="5" t="n">
+        <v>0.0004976851851851852</v>
+      </c>
+      <c r="F31" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="2" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="A35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="5" t="n">
-        <v>0.0005092592592592592</v>
-      </c>
-      <c r="F37" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>0.0002546296296296296</v>
-      </c>
-      <c r="F38" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="5" t="n">
-        <v>0.0002662037037037037</v>
-      </c>
-      <c r="F39" s="4" t="n">
-        <v>3</v>
+      <c r="D35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>0.0003819444444444445</v>
+      </c>
+      <c r="F35" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="5" t="n">
-        <v>0.0003935185185185185</v>
-      </c>
-      <c r="F40" s="4" t="n">
-        <v>4</v>
+      <c r="A40" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -923,135 +885,137 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="4" t="n"/>
+        <v>16</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="5" t="n">
+        <v>0.0005092592592592592</v>
+      </c>
+      <c r="F44" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="5" t="n">
+        <v>0.0002546296296296296</v>
+      </c>
+      <c r="F45" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>0.0002662037037037037</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="B47" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="5" t="n">
-        <v>0.0001273148148148148</v>
-      </c>
-      <c r="F44" s="4" t="n">
-        <v>1</v>
+      <c r="C47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>0.0003935185185185185</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="4" t="s">
+      <c r="B51" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="5" t="n">
-        <v>0.000474537037037037</v>
-      </c>
-      <c r="F53" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="5" t="n">
-        <v>0.0001273148148148148</v>
-      </c>
-      <c r="F54" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="5" t="n">
-        <v>0.000150462962962963</v>
-      </c>
-      <c r="F55" s="4" t="n">
-        <v>3</v>
+      <c r="D51" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E51" s="5" t="n">
+        <v>0.0002546296296296296</v>
+      </c>
+      <c r="F51" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="5" t="n">
-        <v>0.0002662037037037037</v>
-      </c>
-      <c r="F56" s="4" t="n">
-        <v>4</v>
+      <c r="A56" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1076,36 +1040,144 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="4" t="n"/>
+        <v>16</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="C60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="5" t="n">
+        <v>0.000474537037037037</v>
+      </c>
+      <c r="F60" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="5" t="n">
+        <v>0.0001273148148148148</v>
+      </c>
+      <c r="F61" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E62" s="5" t="n">
+        <v>0.000150462962962963</v>
+      </c>
+      <c r="F62" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="B63" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E60" s="5" t="n">
-        <v>0.0001273148148148148</v>
-      </c>
-      <c r="F60" s="4" t="n">
+      <c r="C63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E63" s="5" t="n">
+        <v>0.0002662037037037037</v>
+      </c>
+      <c r="F63" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>0.0004976851851851852</v>
+      </c>
+      <c r="F67" s="4" t="n">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A58:E58"/>
+  <mergeCells count="13">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A65:F65"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1117,7 +1189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1163,19 +1235,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.000625</v>
+        <v>0.0005092592592592592</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>1</v>
@@ -1189,13 +1261,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0003703703703703704</v>
+        <v>0.0002083333333333333</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>2</v>
@@ -1203,19 +1275,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0005092592592592592</v>
+        <v>0.0002662037037037037</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>3</v>
@@ -1223,19 +1295,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0005208333333333333</v>
+        <v>0.0005092592592592592</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>4</v>
@@ -1243,7 +1315,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1268,17 +1340,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4" t="n"/>
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C12" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0001273148148148148</v>
+        <v>0.0006828703703703704</v>
       </c>
       <c r="F12" s="4" t="n">
         <v>1</v>
@@ -1286,7 +1360,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1316,19 +1390,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.0006365740740740741</v>
+        <v>0.0005208333333333333</v>
       </c>
       <c r="F21" s="4" t="n">
         <v>1</v>
@@ -1336,19 +1410,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="E22" s="5" t="n">
-        <v>0.0003819444444444445</v>
+        <v>0.0001388888888888889</v>
       </c>
       <c r="F22" s="4" t="n">
         <v>2</v>
@@ -1359,16 +1433,16 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.0004976851851851852</v>
+        <v>0.0002893518518518518</v>
       </c>
       <c r="F23" s="4" t="n">
         <v>3</v>
@@ -1376,19 +1450,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0004976851851851852</v>
+        <v>0.0003703703703703704</v>
       </c>
       <c r="F24" s="4" t="n">
         <v>4</v>
@@ -1396,7 +1470,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1421,342 +1495,32 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="4" t="n"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="C28" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.0001273148148148148</v>
+        <v>0.0005092592592592592</v>
       </c>
       <c r="F28" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="5" t="n">
-        <v>0.0005092592592592592</v>
-      </c>
-      <c r="F37" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>0.0002546296296296296</v>
-      </c>
-      <c r="F38" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="5" t="n">
-        <v>0.0002662037037037037</v>
-      </c>
-      <c r="F39" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="5" t="n">
-        <v>0.0003935185185185185</v>
-      </c>
-      <c r="F40" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="4" t="n"/>
-      <c r="C44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E44" s="5" t="n">
-        <v>0.0001273148148148148</v>
-      </c>
-      <c r="F44" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E53" s="5" t="n">
-        <v>0.000474537037037037</v>
-      </c>
-      <c r="F53" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E54" s="5" t="n">
-        <v>0.0001273148148148148</v>
-      </c>
-      <c r="F54" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="5" t="n">
-        <v>0.000150462962962963</v>
-      </c>
-      <c r="F55" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="5" t="n">
-        <v>0.0002662037037037037</v>
-      </c>
-      <c r="F56" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="4" t="n"/>
-      <c r="C60" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E60" s="5" t="n">
-        <v>0.0001273148148148148</v>
-      </c>
-      <c r="F60" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A51:E51"/>
-    <mergeCell ref="A58:E58"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/media/predictions/3.xlsx
+++ b/media/predictions/3.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
-  <si>
-    <t>Заплив №1 - Чоловіки</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+  <si>
+    <t>Заплив №1 - Жінки</t>
   </si>
   <si>
     <t>Дистанція №1 - 100 Вільний стиль</t>
@@ -42,15 +42,27 @@
     <t>Доріжка</t>
   </si>
   <si>
+    <t>6 6</t>
+  </si>
+  <si>
+    <t>A(25-29)</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Заплив №2 - Чоловіки</t>
+  </si>
+  <si>
     <t>admin admin</t>
   </si>
   <si>
     <t>None(None)</t>
   </si>
   <si>
-    <t>Single</t>
-  </si>
-  <si>
     <t>dsad</t>
   </si>
   <si>
@@ -84,7 +96,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>Заплив №2 - Чоловіки</t>
+    <t>Заплив №3 - Чоловіки</t>
   </si>
   <si>
     <t>авы авы</t>
@@ -93,55 +105,40 @@
     <t>авы</t>
   </si>
   <si>
+    <t>Заплив №4 - Жінки</t>
+  </si>
+  <si>
+    <t>Дистанція №2 - 50 Брас</t>
+  </si>
+  <si>
+    <t>Заплив №5 - Чоловіки</t>
+  </si>
+  <si>
+    <t>Заплив №6 - Жінки</t>
+  </si>
+  <si>
+    <t>Дистанція №3 - 100 Баттерфлай</t>
+  </si>
+  <si>
+    <t>Заплив №7 - Чоловіки</t>
+  </si>
+  <si>
+    <t>Заплив №8 - Жінки</t>
+  </si>
+  <si>
+    <t>Дистанція №4 - 100 Комплексне плавання</t>
+  </si>
+  <si>
+    <t>Заплив №9 - Чоловіки</t>
+  </si>
+  <si>
     <t>Заплив №3 - Жінки</t>
   </si>
   <si>
-    <t>6 6</t>
-  </si>
-  <si>
-    <t>A(25-29)</t>
-  </si>
-  <si>
-    <t>6</t>
+    <t>Дистанція №2 - 50 Вільний стиль</t>
   </si>
   <si>
     <t>Заплив №4 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Дистанція №2 - 50 Брас</t>
-  </si>
-  <si>
-    <t>Заплив №5 - Жінки</t>
-  </si>
-  <si>
-    <t>Заплив №6 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Дистанція №3 - 100 Баттерфлай</t>
-  </si>
-  <si>
-    <t>Заплив №7 - Жінки</t>
-  </si>
-  <si>
-    <t>Заплив №8 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Дистанція №4 - 100 Комплексне плавання</t>
-  </si>
-  <si>
-    <t>Заплив №9 - Жінки</t>
-  </si>
-  <si>
-    <t>Заплив №2 - Жінки</t>
-  </si>
-  <si>
-    <t>Заплив №3 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Дистанція №2 - 50 Вільний стиль</t>
-  </si>
-  <si>
-    <t>Заплив №4 - Жінки</t>
   </si>
 </sst>
 </file>
@@ -511,7 +508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,75 +569,15 @@
         <v>11</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.466099537037037</v>
+        <v>0.0003819444444444445</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>0.0005092592592592592</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>0.0006134259259259259</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0.0006365740740740741</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -673,27 +610,87 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.466099537037037</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.0005092592592592592</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.0006134259259259259</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="5" t="n">
-        <v>0.0003819444444444445</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>1</v>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.0006365740740740741</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -726,13 +723,13 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>28</v>
@@ -779,82 +776,22 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.0004976851851851852</v>
+        <v>0.0003819444444444445</v>
       </c>
       <c r="F36" s="4" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" s="5" t="n">
-        <v>0.0002662037037037037</v>
-      </c>
-      <c r="F37" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>0.0003819444444444445</v>
-      </c>
-      <c r="F38" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="5" t="n">
-        <v>0.0003819444444444445</v>
-      </c>
-      <c r="F39" s="4" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -892,22 +829,82 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>0.0004976851851851852</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="5" t="n">
+        <v>0.0002662037037037037</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E48" s="5" t="n">
+        <v>0.0003819444444444445</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D46" s="4" t="s">
+      <c r="B49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="5" t="n">
+      <c r="E49" s="5" t="n">
         <v>0.0003819444444444445</v>
       </c>
-      <c r="F46" s="4" t="n">
-        <v>1</v>
+      <c r="F49" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -945,82 +942,22 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>0.0005092592592592592</v>
+        <v>0.0002546296296296296</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="5" t="n">
-        <v>0.0002546296296296296</v>
-      </c>
-      <c r="F57" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="5" t="n">
-        <v>0.0002662037037037037</v>
-      </c>
-      <c r="F58" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" s="5" t="n">
-        <v>0.0003703703703703704</v>
-      </c>
-      <c r="F59" s="4" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1058,22 +995,82 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E66" s="5" t="n">
+        <v>0.0005092592592592592</v>
+      </c>
+      <c r="F66" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="5" t="n">
         <v>0.0002546296296296296</v>
       </c>
-      <c r="F66" s="4" t="n">
-        <v>1</v>
+      <c r="F67" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>0.0002662037037037037</v>
+      </c>
+      <c r="F68" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>0.0003703703703703704</v>
+      </c>
+      <c r="F69" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1111,82 +1108,22 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>0.0005092592592592592</v>
+        <v>0.0004976851851851852</v>
       </c>
       <c r="F76" s="4" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E77" s="5" t="n">
-        <v>0.0001273148148148148</v>
-      </c>
-      <c r="F77" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="5" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-      <c r="F78" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E79" s="5" t="n">
-        <v>0.0002546296296296296</v>
-      </c>
-      <c r="F79" s="4" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1224,22 +1161,82 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E86" s="5" t="n">
+        <v>0.0005092592592592592</v>
+      </c>
+      <c r="F86" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="5" t="n">
+        <v>0.0001273148148148148</v>
+      </c>
+      <c r="F87" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E88" s="5" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+      <c r="F88" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D86" s="4" t="s">
+      <c r="B89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E86" s="5" t="n">
-        <v>0.0004976851851851852</v>
-      </c>
-      <c r="F86" s="4" t="n">
-        <v>1</v>
+      <c r="E89" s="5" t="n">
+        <v>0.0002546296296296296</v>
+      </c>
+      <c r="F89" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1279,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1331,87 +1328,27 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.000625</v>
+        <v>0.0006828703703703704</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>0.0002662037037037037</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>0.0004976851851851852</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0.0005092592592592592</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1444,32 +1381,92 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.0006828703703703704</v>
+        <v>0.000625</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.0002662037037037037</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.0004976851851851852</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.0005092592592592592</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1497,92 +1494,32 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0006365740740740741</v>
+        <v>0.0005092592592592592</v>
       </c>
       <c r="F26" s="4" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>0.0003703703703703704</v>
-      </c>
-      <c r="F27" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>0.0003935185185185185</v>
-      </c>
-      <c r="F28" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="5" t="n">
-        <v>0.0003935185185185185</v>
-      </c>
-      <c r="F29" s="4" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1610,22 +1547,82 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.0005092592592592592</v>
+        <v>0.0006365740740740741</v>
       </c>
       <c r="F36" s="4" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>0.0003703703703703704</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>0.0003935185185185185</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>0.0003935185185185185</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/media/predictions/3.xlsx
+++ b/media/predictions/3.xlsx
@@ -7,8 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="День 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="День 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Day 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Day 2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,28 +18,28 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
-    <t>Заплив №1 - Жінки</t>
-  </si>
-  <si>
-    <t>Дистанція №1 - 100 Вільний стиль</t>
-  </si>
-  <si>
-    <t>Учасник</t>
-  </si>
-  <si>
-    <t>Вікова група</t>
-  </si>
-  <si>
-    <t>Команда</t>
-  </si>
-  <si>
-    <t>Місто</t>
-  </si>
-  <si>
-    <t>Час</t>
-  </si>
-  <si>
-    <t>Доріжка</t>
+    <t>Swim №1 - Females</t>
+  </si>
+  <si>
+    <t>Distance №1 - 100 Freestyle</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Age group</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Track</t>
   </si>
   <si>
     <t>6 6</t>
@@ -54,7 +54,7 @@
     <t>6</t>
   </si>
   <si>
-    <t>Заплив №2 - Чоловіки</t>
+    <t>Swim №2 - Males</t>
   </si>
   <si>
     <t>admin admin</t>
@@ -96,7 +96,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>Заплив №3 - Чоловіки</t>
+    <t>Swim №3 - Males</t>
   </si>
   <si>
     <t>Жабран Ильйа</t>
@@ -105,40 +105,40 @@
     <t>авы</t>
   </si>
   <si>
-    <t>Заплив №4 - Жінки</t>
-  </si>
-  <si>
-    <t>Дистанція №2 - 50 Брас</t>
-  </si>
-  <si>
-    <t>Заплив №5 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Заплив №6 - Жінки</t>
-  </si>
-  <si>
-    <t>Дистанція №3 - 100 Баттерфлай</t>
-  </si>
-  <si>
-    <t>Заплив №7 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Заплив №8 - Жінки</t>
-  </si>
-  <si>
-    <t>Дистанція №4 - 100 Комплексне плавання</t>
-  </si>
-  <si>
-    <t>Заплив №9 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Заплив №3 - Жінки</t>
-  </si>
-  <si>
-    <t>Дистанція №2 - 50 Вільний стиль</t>
-  </si>
-  <si>
-    <t>Заплив №4 - Чоловіки</t>
+    <t>Swim №4 - Females</t>
+  </si>
+  <si>
+    <t>Distance №2 - 50 Breaststroke</t>
+  </si>
+  <si>
+    <t>Swim №5 - Males</t>
+  </si>
+  <si>
+    <t>Swim №6 - Females</t>
+  </si>
+  <si>
+    <t>Distance №3 - 100 Butterfly</t>
+  </si>
+  <si>
+    <t>Swim №7 - Males</t>
+  </si>
+  <si>
+    <t>Swim №8 - Females</t>
+  </si>
+  <si>
+    <t>Distance №4 - 100 Dolphin kick</t>
+  </si>
+  <si>
+    <t>Swim №9 - Males</t>
+  </si>
+  <si>
+    <t>Swim №3 - Females</t>
+  </si>
+  <si>
+    <t>Distance №2 - 50 Freestyle</t>
+  </si>
+  <si>
+    <t>Swim №4 - Males</t>
   </si>
 </sst>
 </file>

--- a/media/predictions/3.xlsx
+++ b/media/predictions/3.xlsx
@@ -7,8 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Day 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Day 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="День 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="День 2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,30 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
-  <si>
-    <t>Swim №1 - Females</t>
-  </si>
-  <si>
-    <t>Distance №1 - 100 Freestyle</t>
-  </si>
-  <si>
-    <t>Member</t>
-  </si>
-  <si>
-    <t>Age group</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Track</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+  <si>
+    <t>Заплив №1 - Жінки</t>
+  </si>
+  <si>
+    <t>Дистанція №1 - 100 Вільний стиль</t>
+  </si>
+  <si>
+    <t>Учасник</t>
+  </si>
+  <si>
+    <t>Вікова група</t>
+  </si>
+  <si>
+    <t>Команда</t>
+  </si>
+  <si>
+    <t>Місто</t>
+  </si>
+  <si>
+    <t>Час</t>
+  </si>
+  <si>
+    <t>Доріжка</t>
   </si>
   <si>
     <t>6 6</t>
@@ -48,22 +48,34 @@
     <t>A(25-29)</t>
   </si>
   <si>
-    <t>Single</t>
+    <t>Без команди</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>Swim №2 - Males</t>
-  </si>
-  <si>
-    <t>admin admin</t>
-  </si>
-  <si>
-    <t>None(None)</t>
-  </si>
-  <si>
-    <t>dsad</t>
+    <t>Заплив №2 - Чоловіки</t>
+  </si>
+  <si>
+    <t>2 2</t>
+  </si>
+  <si>
+    <t>E(45-49)</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Жабран Ильйа</t>
+  </si>
+  <si>
+    <t>C(35-39)</t>
+  </si>
+  <si>
+    <t>авы</t>
   </si>
   <si>
     <t>3 3</t>
@@ -72,73 +84,43 @@
     <t>F(55-59)</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>4 4</t>
   </si>
   <si>
-    <t>C(35-39)</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>2 2</t>
-  </si>
-  <si>
-    <t>E(45-49)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Swim №3 - Males</t>
-  </si>
-  <si>
-    <t>Жабран Ильйа</t>
-  </si>
-  <si>
-    <t>авы</t>
-  </si>
-  <si>
-    <t>Swim №4 - Females</t>
-  </si>
-  <si>
-    <t>Distance №2 - 50 Breaststroke</t>
-  </si>
-  <si>
-    <t>Swim №5 - Males</t>
-  </si>
-  <si>
-    <t>Swim №6 - Females</t>
-  </si>
-  <si>
-    <t>Distance №3 - 100 Butterfly</t>
-  </si>
-  <si>
-    <t>Swim №7 - Males</t>
-  </si>
-  <si>
-    <t>Swim №8 - Females</t>
-  </si>
-  <si>
-    <t>Distance №4 - 100 Dolphin kick</t>
-  </si>
-  <si>
-    <t>Swim №9 - Males</t>
-  </si>
-  <si>
-    <t>Swim №3 - Females</t>
-  </si>
-  <si>
-    <t>Distance №2 - 50 Freestyle</t>
-  </si>
-  <si>
-    <t>Swim №4 - Males</t>
+    <t>Заплив №3 - Жінки</t>
+  </si>
+  <si>
+    <t>Дистанція №2 - 50 Брас</t>
+  </si>
+  <si>
+    <t>Заплив №4 - Чоловіки</t>
+  </si>
+  <si>
+    <t>Заплив №5 - Жінки</t>
+  </si>
+  <si>
+    <t>Дистанція №3 - 100 Баттерфлай</t>
+  </si>
+  <si>
+    <t>Заплив №6 - Чоловіки</t>
+  </si>
+  <si>
+    <t>Заплив №7 - Жінки</t>
+  </si>
+  <si>
+    <t>Дистанція №4 - 100 Комплексне плавання</t>
+  </si>
+  <si>
+    <t>Заплив №8 - Чоловіки</t>
+  </si>
+  <si>
+    <t>Дистанція №2 - 50 Вільний стиль</t>
   </si>
 </sst>
 </file>
@@ -508,7 +490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,13 +598,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.466099537037037</v>
+        <v>0.0006365740740740741</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>1</v>
@@ -630,19 +612,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0005092592592592592</v>
+        <v>0.0003819444444444445</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>2</v>
@@ -656,13 +638,13 @@
         <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0006134259259259259</v>
+        <v>0.0005092592592592592</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>3</v>
@@ -673,16 +655,16 @@
         <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E19" s="5" t="n">
-        <v>0.0006365740740740741</v>
+        <v>0.0006134259259259259</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>4</v>
@@ -690,12 +672,12 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -723,16 +705,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0.0003819444444444445</v>
@@ -743,12 +725,12 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -776,32 +758,92 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.0003819444444444445</v>
+        <v>0.0004976851851851852</v>
       </c>
       <c r="F36" s="4" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>0.0002662037037037037</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>0.0003819444444444445</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="5" t="n">
+        <v>0.0003819444444444445</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -829,92 +871,32 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>0.0004976851851851852</v>
+        <v>0.0002546296296296296</v>
       </c>
       <c r="F46" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E47" s="5" t="n">
-        <v>0.0002662037037037037</v>
-      </c>
-      <c r="F47" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="5" t="n">
-        <v>0.0003819444444444445</v>
-      </c>
-      <c r="F48" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="5" t="n">
-        <v>0.0003819444444444445</v>
-      </c>
-      <c r="F49" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -942,32 +924,92 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>0.0002546296296296296</v>
+        <v>0.0005092592592592592</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>1</v>
       </c>
     </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>0.0002546296296296296</v>
+      </c>
+      <c r="F57" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>0.0002662037037037037</v>
+      </c>
+      <c r="F58" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="5" t="n">
+        <v>0.0003703703703703704</v>
+      </c>
+      <c r="F59" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -995,92 +1037,32 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="4" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E66" s="5" t="n">
-        <v>0.0005092592592592592</v>
+        <v>0.0004976851851851852</v>
       </c>
       <c r="F66" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E67" s="5" t="n">
-        <v>0.0002546296296296296</v>
-      </c>
-      <c r="F67" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="5" t="n">
-        <v>0.0002662037037037037</v>
-      </c>
-      <c r="F68" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="5" t="n">
-        <v>0.0003703703703703704</v>
-      </c>
-      <c r="F69" s="4" t="n">
-        <v>4</v>
-      </c>
-    </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1108,139 +1090,86 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>0.0004976851851851852</v>
+        <v>0.0005092592592592592</v>
       </c>
       <c r="F76" s="4" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" s="2" t="n"/>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="4" t="s">
+    <row r="77" spans="1:6">
+      <c r="A77" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>0.0001273148148148148</v>
+      </c>
+      <c r="F77" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C78" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>0.000162037037037037</v>
+      </c>
+      <c r="F78" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E86" s="5" t="n">
-        <v>0.0005092592592592592</v>
-      </c>
-      <c r="F86" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E87" s="5" t="n">
-        <v>0.0001273148148148148</v>
-      </c>
-      <c r="F87" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D88" s="4" t="s">
+      <c r="C79" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E88" s="5" t="n">
-        <v>0.000162037037037037</v>
-      </c>
-      <c r="F88" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E89" s="5" t="n">
+      <c r="E79" s="5" t="n">
         <v>0.0002546296296296296</v>
       </c>
-      <c r="F89" s="4" t="n">
+      <c r="F79" s="4" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="24">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:F4"/>
@@ -1265,9 +1194,6 @@
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A72:F72"/>
     <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A84:F84"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1381,16 +1307,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.000625</v>
@@ -1401,16 +1327,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0.0002662037037037037</v>
@@ -1421,16 +1347,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>0.0004976851851851852</v>
@@ -1441,16 +1367,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.0005092592592592592</v>
@@ -1461,12 +1387,12 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1514,12 +1440,12 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1547,16 +1473,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>0.0006365740740740741</v>
@@ -1567,16 +1493,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>0.0003703703703703704</v>
@@ -1587,16 +1513,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>0.0003935185185185185</v>
@@ -1607,16 +1533,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E39" s="5" t="n">
         <v>0.0003935185185185185</v>

--- a/media/predictions/3.xlsx
+++ b/media/predictions/3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Заплив №1 - Чоловіки</t>
   </si>
@@ -42,31 +42,43 @@
     <t>Доріжка</t>
   </si>
   <si>
+    <t>admin admin</t>
+  </si>
+  <si>
+    <t>B(30-34)</t>
+  </si>
+  <si>
+    <t>Hello world</t>
+  </si>
+  <si>
+    <t>dsad</t>
+  </si>
+  <si>
+    <t>Жабран Ильйа</t>
+  </si>
+  <si>
+    <t>C(35-39)</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>авы</t>
+  </si>
+  <si>
+    <t>4 4</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>2 2</t>
   </si>
   <si>
     <t>E(45-49)</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>2</t>
-  </si>
-  <si>
-    <t>4 4</t>
-  </si>
-  <si>
-    <t>C(35-39)</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Жабран Ильйа</t>
-  </si>
-  <si>
-    <t>авы</t>
   </si>
   <si>
     <t>Заплив №2 - Чоловіки</t>
@@ -518,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0006365740740740741</v>
+        <v>0.02291666666666667</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>1</v>
@@ -532,13 +544,13 @@
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.0006134259259259259</v>
+        <v>0.0003819444444444445</v>
       </c>
       <c r="F7" s="4" t="n">
         <v>2</v>
@@ -546,32 +558,52 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0003819444444444445</v>
+        <v>0.0006134259259259259</v>
       </c>
       <c r="F8" s="4" t="n">
         <v>3</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.0006365740740740741</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -599,16 +631,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.0004976851851851852</v>
@@ -619,16 +651,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0.0003819444444444445</v>
@@ -639,16 +671,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>0.0003819444444444445</v>
@@ -659,12 +691,12 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -692,16 +724,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0.0005092592592592592</v>
@@ -712,16 +744,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E27" s="5" t="n">
         <v>0.0002662037037037037</v>
@@ -732,16 +764,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.0002546296296296296</v>
@@ -752,12 +784,12 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -785,16 +817,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E36" s="5" t="n">
         <v>0.0005092592592592592</v>
@@ -805,16 +837,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" s="5" t="n">
         <v>0.0002546296296296296</v>
@@ -825,16 +857,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E38" s="5" t="n">
         <v>0.0001273148148148148</v>
@@ -917,16 +949,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0.000625</v>
@@ -937,16 +969,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.0005092592592592592</v>
@@ -957,16 +989,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0.0004976851851851852</v>
@@ -977,12 +1009,12 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1010,16 +1042,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.0006365740740740741</v>
@@ -1030,16 +1062,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0.0003935185185185185</v>
@@ -1050,16 +1082,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18" s="5" t="n">
         <v>0.0003935185185185185</v>

--- a/media/predictions/3.xlsx
+++ b/media/predictions/3.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
-  <si>
-    <t>Заплив №1 - Чоловіки</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+  <si>
+    <t>Заплив №1 - Жінки</t>
   </si>
   <si>
     <t>Дистанція №1 - 100 Вільний стиль</t>
@@ -42,6 +42,18 @@
     <t>Доріжка</t>
   </si>
   <si>
+    <t>6 6</t>
+  </si>
+  <si>
+    <t>A(25-29)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Заплив №2 - Чоловіки</t>
+  </si>
+  <si>
     <t>admin admin</t>
   </si>
   <si>
@@ -81,22 +93,31 @@
     <t>2</t>
   </si>
   <si>
-    <t>Заплив №2 - Чоловіки</t>
+    <t>Заплив №3 - Жінки</t>
   </si>
   <si>
     <t>Дистанція №2 - 50 Брас</t>
   </si>
   <si>
-    <t>Заплив №3 - Чоловіки</t>
+    <t>Заплив №4 - Чоловіки</t>
+  </si>
+  <si>
+    <t>Заплив №5 - Жінки</t>
   </si>
   <si>
     <t>Дистанція №3 - 100 Баттерфлай</t>
   </si>
   <si>
-    <t>Заплив №4 - Чоловіки</t>
+    <t>Заплив №6 - Чоловіки</t>
+  </si>
+  <si>
+    <t>Заплив №7 - Жінки</t>
   </si>
   <si>
     <t>Дистанція №4 - 100 Комплексне плавання</t>
+  </si>
+  <si>
+    <t>Заплив №8 - Чоловіки</t>
   </si>
   <si>
     <t>Дистанція №2 - 50 Вільний стиль</t>
@@ -469,6 +490,653 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:F78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="15"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="n"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s"/>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.0003819444444444445</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="n"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>0.02291666666666667</v>
+      </c>
+      <c r="F16" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>0.0003819444444444445</v>
+      </c>
+      <c r="F17" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>0.0006134259259259259</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="5" t="n">
+        <v>0.0006365740740740741</v>
+      </c>
+      <c r="F19" s="4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="2" t="n"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="4" t="s"/>
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="5" t="n">
+        <v>0.0003819444444444445</v>
+      </c>
+      <c r="F26" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="n"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>0.0004976851851851852</v>
+      </c>
+      <c r="F36" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="5" t="n">
+        <v>0.0003819444444444445</v>
+      </c>
+      <c r="F37" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="5" t="n">
+        <v>0.0003819444444444445</v>
+      </c>
+      <c r="F38" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="n"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="4" t="s"/>
+      <c r="D46" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="5" t="n">
+        <v>0.0002546296296296296</v>
+      </c>
+      <c r="F46" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="n"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="5" t="n">
+        <v>0.0005092592592592592</v>
+      </c>
+      <c r="F56" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="5" t="n">
+        <v>0.0002662037037037037</v>
+      </c>
+      <c r="F57" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" s="5" t="n">
+        <v>0.0002546296296296296</v>
+      </c>
+      <c r="F58" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="2" t="n"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" s="4" t="s"/>
+      <c r="D66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="5" t="n">
+        <v>0.0004976851851851852</v>
+      </c>
+      <c r="F66" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="2" t="n"/>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="5" t="n">
+        <v>0.0005092592592592592</v>
+      </c>
+      <c r="F76" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E77" s="5" t="n">
+        <v>0.0002546296296296296</v>
+      </c>
+      <c r="F77" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E78" s="5" t="n">
+        <v>0.0001273148148148148</v>
+      </c>
+      <c r="F78" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A74:F74"/>
+  </mergeCells>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -523,87 +1191,25 @@
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="4" t="s"/>
+      <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="5" t="n">
-        <v>0.02291666666666667</v>
+        <v>0.0006828703703703704</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>0.0003819444444444445</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>0.0006134259259259259</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0.0006365740740740741</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,16 +1240,16 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.0004976851851851852</v>
+        <v>0.000625</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>1</v>
@@ -651,19 +1257,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.0003819444444444445</v>
+        <v>0.0005092592592592592</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>2</v>
@@ -671,19 +1277,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.0003819444444444445</v>
+        <v>0.0004976851851851852</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>3</v>
@@ -691,12 +1297,12 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -724,16 +1330,14 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C26" s="4" t="s"/>
       <c r="D26" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E26" s="5" t="n">
         <v>0.0005092592592592592</v>
@@ -742,54 +1346,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>0.0002662037037037037</v>
-      </c>
-      <c r="F27" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>0.0002546296296296296</v>
-      </c>
-      <c r="F28" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -820,16 +1384,16 @@
         <v>16</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.0005092592592592592</v>
+        <v>0.0006365740740740741</v>
       </c>
       <c r="F36" s="4" t="n">
         <v>1</v>
@@ -837,19 +1401,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>0.0002546296296296296</v>
+        <v>0.0003935185185185185</v>
       </c>
       <c r="F37" s="4" t="n">
         <v>2</v>
@@ -857,19 +1421,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>0.0001273148148148148</v>
+        <v>0.0003935185185185185</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>3</v>
@@ -892,223 +1456,4 @@
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="15"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="2" t="n"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>0.000625</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>0.0005092592592592592</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>0.0004976851851851852</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2" t="n"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>0.0006365740740740741</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>0.0003935185185185185</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>0.0003935185185185185</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A14:F14"/>
-  </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
 </file>
--- a/media/predictions/3.xlsx
+++ b/media/predictions/3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>Заплив №1 - Жінки</t>
   </si>
@@ -51,6 +51,9 @@
     <t>6</t>
   </si>
   <si>
+    <t>00:00.33</t>
+  </si>
+  <si>
     <t>Заплив №2 - Чоловіки</t>
   </si>
   <si>
@@ -66,61 +69,118 @@
     <t>dsad</t>
   </si>
   <si>
+    <t>01:43.77</t>
+  </si>
+  <si>
+    <t>3 3</t>
+  </si>
+  <si>
+    <t>G(55-59)</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>00:00.44</t>
+  </si>
+  <si>
+    <t>4 4</t>
+  </si>
+  <si>
+    <t>C(35-39)</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>00:00.53</t>
+  </si>
+  <si>
+    <t>2 2</t>
+  </si>
+  <si>
+    <t>E(45-49)</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>00:00.55</t>
+  </si>
+  <si>
+    <t>Заплив №3 - Чоловіки</t>
+  </si>
+  <si>
     <t>Жабран Ильйа</t>
   </si>
   <si>
-    <t>C(35-39)</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>авы</t>
   </si>
   <si>
-    <t>4 4</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2 2</t>
-  </si>
-  <si>
-    <t>E(45-49)</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>Заплив №4 - Жінки</t>
+  </si>
+  <si>
+    <t>Дистанція №2 - 50 Брас</t>
+  </si>
+  <si>
+    <t>Заплив №5 - Чоловіки</t>
+  </si>
+  <si>
+    <t>00:00.43</t>
+  </si>
+  <si>
+    <t>00:00.23</t>
+  </si>
+  <si>
+    <t>Заплив №6 - Жінки</t>
+  </si>
+  <si>
+    <t>Дистанція №3 - 100 Баттерфлай</t>
+  </si>
+  <si>
+    <t>00:00.22</t>
+  </si>
+  <si>
+    <t>Заплив №7 - Чоловіки</t>
+  </si>
+  <si>
+    <t>00:00.32</t>
+  </si>
+  <si>
+    <t>Заплив №8 - Жінки</t>
+  </si>
+  <si>
+    <t>Дистанція №4 - 100 Комплексне плавання</t>
+  </si>
+  <si>
+    <t>Заплив №9 - Чоловіки</t>
+  </si>
+  <si>
+    <t>00:00.11</t>
+  </si>
+  <si>
+    <t>00:00.14</t>
+  </si>
+  <si>
+    <t>00:00.59</t>
+  </si>
+  <si>
+    <t>00:00.54</t>
   </si>
   <si>
     <t>Заплив №3 - Жінки</t>
   </si>
   <si>
-    <t>Дистанція №2 - 50 Брас</t>
+    <t>Дистанція №2 - 50 Вільний стиль</t>
   </si>
   <si>
     <t>Заплив №4 - Чоловіки</t>
   </si>
   <si>
-    <t>Заплив №5 - Жінки</t>
-  </si>
-  <si>
-    <t>Дистанція №3 - 100 Баттерфлай</t>
-  </si>
-  <si>
-    <t>Заплив №6 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Заплив №7 - Жінки</t>
-  </si>
-  <si>
-    <t>Дистанція №4 - 100 Комплексне плавання</t>
-  </si>
-  <si>
-    <t>Заплив №8 - Чоловіки</t>
-  </si>
-  <si>
-    <t>Дистанція №2 - 50 Вільний стиль</t>
+    <t>00:00.34</t>
   </si>
 </sst>
 </file>
@@ -180,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -192,7 +252,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -490,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,8 +607,8 @@
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="n">
-        <v>0.0003819444444444445</v>
+      <c r="E6" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>1</v>
@@ -557,7 +616,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -590,19 +649,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>0.02291666666666667</v>
+        <v>16</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>1</v>
@@ -610,19 +669,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>0.0003819444444444445</v>
+        <v>21</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>2</v>
@@ -630,19 +689,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>0.0006134259259259259</v>
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F18" s="4" t="n">
         <v>3</v>
@@ -650,19 +709,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>0.0006365740740740741</v>
+        <v>29</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F19" s="4" t="n">
         <v>4</v>
@@ -670,12 +729,12 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -703,17 +762,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="4" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D26" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>0.0003819444444444445</v>
+        <v>33</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F26" s="4" t="n">
         <v>1</v>
@@ -721,12 +782,12 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -754,72 +815,30 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C36" s="4" t="s"/>
       <c r="D36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="5" t="n">
-        <v>0.0004976851851851852</v>
+        <v>10</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F36" s="4" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="5" t="n">
-        <v>0.0003819444444444445</v>
-      </c>
-      <c r="F37" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>0.0003819444444444445</v>
-      </c>
-      <c r="F38" s="4" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -847,30 +866,92 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" s="4" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="5" t="n">
-        <v>0.0002546296296296296</v>
+        <v>25</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="F46" s="4" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F48" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -898,72 +979,30 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>18</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C56" s="4" t="s"/>
       <c r="D56" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="5" t="n">
-        <v>0.0005092592592592592</v>
+        <v>10</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F56" s="4" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E57" s="5" t="n">
-        <v>0.0002662037037037037</v>
-      </c>
-      <c r="F57" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E58" s="5" t="n">
-        <v>0.0002546296296296296</v>
-      </c>
-      <c r="F58" s="4" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -991,30 +1030,92 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C66" s="4" t="s"/>
+        <v>24</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="D66" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="5" t="n">
-        <v>0.0004976851851851852</v>
+        <v>33</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F66" s="4" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F67" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1042,66 +1143,137 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="4" t="s"/>
+      <c r="D76" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F76" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="2" t="n"/>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F86" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F87" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="B88" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="5" t="n">
-        <v>0.0005092592592592592</v>
-      </c>
-      <c r="F76" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E77" s="5" t="n">
-        <v>0.0002546296296296296</v>
-      </c>
-      <c r="F77" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D78" s="4" t="s">
+      <c r="E88" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F88" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E78" s="5" t="n">
-        <v>0.0001273148148148148</v>
-      </c>
-      <c r="F78" s="4" t="n">
-        <v>3</v>
+      <c r="C89" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F89" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A4:F4"/>
@@ -1126,6 +1298,9 @@
     <mergeCell ref="A71:F71"/>
     <mergeCell ref="A72:F72"/>
     <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A84:F84"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -1137,7 +1312,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1195,8 +1370,8 @@
       <c r="D6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="5" t="n">
-        <v>0.0006828703703703704</v>
+      <c r="E6" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="n">
         <v>1</v>
@@ -1204,7 +1379,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1237,19 +1412,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>0.000625</v>
+        <v>33</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F16" s="4" t="n">
         <v>1</v>
@@ -1257,19 +1432,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="5" t="n">
-        <v>0.0005092592592592592</v>
+      <c r="E17" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F17" s="4" t="n">
         <v>2</v>
@@ -1277,32 +1452,52 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>0.0004976851851851852</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <v>3</v>
+      <c r="F19" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1339,8 +1534,8 @@
       <c r="D26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="5" t="n">
-        <v>0.0005092592592592592</v>
+      <c r="E26" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="F26" s="4" t="n">
         <v>1</v>
@@ -1348,12 +1543,12 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1381,19 +1576,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="5" t="n">
-        <v>0.0006365740740740741</v>
+        <v>33</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F36" s="4" t="n">
         <v>1</v>
@@ -1401,19 +1596,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E37" s="5" t="n">
-        <v>0.0003935185185185185</v>
+        <v>21</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="F37" s="4" t="n">
         <v>2</v>
@@ -1421,22 +1616,42 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="5" t="n">
-        <v>0.0003935185185185185</v>
+        <v>25</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="F38" s="4" t="n">
         <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="4" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
